--- a/posesiones/1486000.xlsx
+++ b/posesiones/1486000.xlsx
@@ -1853,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2047,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>16</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2147,7 +2147,7 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>15</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15">
         <v>15</v>
@@ -2488,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R16">
         <v>14</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -2588,7 +2588,7 @@
         <v>1</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18">
         <v>4</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -2685,7 +2685,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2735,7 +2735,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R21">
         <v>22</v>
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2835,7 +2835,7 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R23">
         <v>23</v>
@@ -2888,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R25">
         <v>9</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R27">
         <v>20</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R31">
         <v>15</v>
@@ -3288,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R32">
         <v>21</v>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3388,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>20</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3491,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R36">
         <v>26</v>
@@ -3544,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R37">
         <v>13</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3694,7 +3694,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R40">
         <v>8</v>
@@ -3744,7 +3744,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R42">
         <v>11</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R44">
         <v>13</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4091,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:18">
@@ -4141,7 +4141,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>11</v>
@@ -4194,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R50">
         <v>12</v>
@@ -4247,7 +4247,7 @@
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R51">
         <v>12</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4350,7 +4350,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R53">
         <v>15</v>
@@ -4403,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R55">
         <v>9</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4553,7 +4553,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R57">
         <v>11</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4650,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -4697,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:18">
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4982,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R66">
         <v>3</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5085,7 +5085,7 @@
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R68">
         <v>16</v>
@@ -5138,7 +5138,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R69">
         <v>18</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5238,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:18">
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5379,7 +5379,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R75">
         <v>9</v>
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R77">
         <v>16</v>
@@ -5582,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R78">
         <v>24</v>
@@ -5635,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:18">
@@ -5682,7 +5682,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:18">
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5823,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5870,7 +5870,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:18">
@@ -5917,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -5964,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:18">
@@ -6014,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R87">
         <v>7</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" spans="1:18">
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6161,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" spans="1:18">
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:18">
@@ -6302,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6349,7 +6349,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" spans="1:18">
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6446,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R96">
         <v>6</v>
@@ -6499,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R97">
         <v>14</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6599,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R99">
         <v>26</v>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6837,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6887,7 +6887,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R105">
         <v>11</v>
@@ -6940,7 +6940,7 @@
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R106">
         <v>20</v>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:18">
@@ -7037,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R108">
         <v>7</v>
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:18">
@@ -7134,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="111" spans="1:18">
@@ -7184,7 +7184,7 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R111">
         <v>12</v>
@@ -7237,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7287,7 +7287,7 @@
         <v>1</v>
       </c>
       <c r="Q113">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R113">
         <v>18</v>
@@ -7340,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7434,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7531,7 +7531,7 @@
         <v>1</v>
       </c>
       <c r="Q118">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R118">
         <v>2</v>
@@ -7584,7 +7584,7 @@
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R119">
         <v>18</v>
@@ -7634,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="Q120">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:18">
@@ -7681,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:18">
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="Q123">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7869,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="Q125">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:18">
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -7963,7 +7963,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:18">
@@ -8010,7 +8010,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8057,7 +8057,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:18">
@@ -8107,7 +8107,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R130">
         <v>37</v>
@@ -8151,10 +8151,10 @@
         <v>1</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
       <c r="Q132">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:18">
@@ -8248,7 +8248,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="Q134">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="135" spans="1:18">
@@ -8342,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8436,7 +8436,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8477,10 +8477,10 @@
         <v>1</v>
       </c>
       <c r="P138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q138">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:18">
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8574,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="Q142">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:18">
@@ -8715,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="Q143">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8815,7 +8815,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="R145">
         <v>23</v>
@@ -8868,7 +8868,7 @@
         <v>1</v>
       </c>
       <c r="Q146">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R146">
         <v>13</v>
@@ -8921,7 +8921,7 @@
         <v>1</v>
       </c>
       <c r="Q147">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R147">
         <v>20</v>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9021,7 +9021,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R149">
         <v>25</v>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9121,7 +9121,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R151">
         <v>22</v>
@@ -9174,7 +9174,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9221,7 +9221,7 @@
         <v>0</v>
       </c>
       <c r="Q153">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="154" spans="1:18">
@@ -9268,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9315,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="Q155">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="156" spans="1:18">
@@ -9362,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="Q157">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158" spans="1:18">
@@ -9456,7 +9456,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9553,7 +9553,7 @@
         <v>1</v>
       </c>
       <c r="Q160">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R160">
         <v>11</v>
@@ -9603,7 +9603,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="Q162">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="163" spans="1:18">
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="Q163">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R163">
         <v>10</v>
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9800,7 +9800,7 @@
         <v>1</v>
       </c>
       <c r="Q165">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R165">
         <v>22</v>
@@ -9850,7 +9850,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -9900,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="Q167">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R167">
         <v>23</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10000,7 +10000,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10047,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="Q170">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="171" spans="1:18">
@@ -10097,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="Q171">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R171">
         <v>12</v>
@@ -10147,7 +10147,7 @@
         <v>0</v>
       </c>
       <c r="Q172">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="173" spans="1:18">
@@ -10197,7 +10197,7 @@
         <v>1</v>
       </c>
       <c r="Q173">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R173">
         <v>29</v>
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="Q174">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10294,7 +10294,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="Q176">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="177" spans="1:18">
@@ -10388,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10435,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10482,7 +10482,7 @@
         <v>0</v>
       </c>
       <c r="Q179">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:18">
@@ -10529,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10623,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10673,7 +10673,7 @@
         <v>1</v>
       </c>
       <c r="Q183">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R183">
         <v>29</v>
@@ -10726,7 +10726,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10776,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="Q185">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R185">
         <v>12</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="Q186">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="187" spans="1:18">
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="Q187">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188" spans="1:18">
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -10964,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="Q189">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="190" spans="1:18">
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="Q191">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="192" spans="1:18">
@@ -11108,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="Q192">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R192">
         <v>12</v>
@@ -11161,7 +11161,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R193">
         <v>19</v>
@@ -11214,7 +11214,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11264,7 +11264,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R195">
         <v>17</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11364,7 +11364,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R197">
         <v>8</v>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11464,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R199">
         <v>5</v>
@@ -11517,7 +11517,7 @@
         <v>0</v>
       </c>
       <c r="Q200">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:18">
@@ -11567,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="Q201">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R201">
         <v>9</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11664,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11711,7 +11711,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11758,7 +11758,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11808,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="Q206">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R206">
         <v>18</v>
@@ -11858,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="Q208">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="209" spans="1:18">
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12002,7 +12002,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R210">
         <v>11</v>
@@ -12052,7 +12052,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12102,7 +12102,7 @@
         <v>1</v>
       </c>
       <c r="Q212">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R212">
         <v>19</v>
@@ -12152,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12202,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R214">
         <v>22</v>
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12305,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="Q216">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R216">
         <v>10</v>
@@ -12355,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12399,7 +12399,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12446,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="Q219">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220" spans="1:18">
@@ -12493,7 +12493,7 @@
         <v>0</v>
       </c>
       <c r="Q220">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="221" spans="1:18">
@@ -12540,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12587,7 +12587,7 @@
         <v>0</v>
       </c>
       <c r="Q222">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="223" spans="1:18">
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12684,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12734,7 +12734,7 @@
         <v>1</v>
       </c>
       <c r="Q225">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R225">
         <v>13</v>
@@ -12784,7 +12784,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12831,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -12878,7 +12878,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -12928,7 +12928,7 @@
         <v>0</v>
       </c>
       <c r="Q229">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="230" spans="1:18">
@@ -12978,7 +12978,7 @@
         <v>1</v>
       </c>
       <c r="Q230">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R230">
         <v>9</v>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13078,7 +13078,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13128,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="Q233">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="234" spans="1:18">
@@ -13178,7 +13178,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R234">
         <v>22</v>
@@ -13231,7 +13231,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R235">
         <v>9</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13325,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13372,7 +13372,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13419,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13466,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13516,7 +13516,7 @@
         <v>1</v>
       </c>
       <c r="Q241">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R241">
         <v>14</v>
@@ -13569,7 +13569,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R242">
         <v>14</v>
@@ -13622,7 +13622,7 @@
         <v>1</v>
       </c>
       <c r="Q243">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R243">
         <v>16</v>
@@ -13672,7 +13672,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13766,7 +13766,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13813,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13860,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -13910,7 +13910,7 @@
         <v>1</v>
       </c>
       <c r="Q249">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R249">
         <v>10</v>
@@ -13963,7 +13963,7 @@
         <v>1</v>
       </c>
       <c r="Q250">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R250">
         <v>19</v>
@@ -14013,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="Q251">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="252" spans="1:18">
@@ -14060,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14107,7 +14107,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14154,7 +14154,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14204,7 +14204,7 @@
         <v>1</v>
       </c>
       <c r="Q255">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R255">
         <v>4</v>
@@ -14254,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14301,7 +14301,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14351,7 +14351,7 @@
         <v>1</v>
       </c>
       <c r="Q258">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R258">
         <v>19</v>
@@ -14401,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14448,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="Q260">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="261" spans="1:18">
@@ -14498,7 +14498,7 @@
         <v>0</v>
       </c>
       <c r="Q261">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14548,7 +14548,7 @@
         <v>1</v>
       </c>
       <c r="Q262">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R262">
         <v>22</v>
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14648,7 +14648,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14701,7 +14701,7 @@
         <v>1</v>
       </c>
       <c r="Q265">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R265">
         <v>3</v>
@@ -14751,7 +14751,7 @@
         <v>0</v>
       </c>
       <c r="Q266">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14795,7 +14795,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14842,7 +14842,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -14936,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="Q270">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="271" spans="1:18">
@@ -14983,7 +14983,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15030,7 +15030,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15077,7 +15077,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15124,7 +15124,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15171,7 +15171,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15218,7 +15218,7 @@
         <v>0</v>
       </c>
       <c r="Q276">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="277" spans="1:18">
@@ -15265,7 +15265,7 @@
         <v>0</v>
       </c>
       <c r="Q277">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="278" spans="1:18">
@@ -15312,7 +15312,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15359,7 +15359,7 @@
         <v>0</v>
       </c>
       <c r="Q279">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="280" spans="1:18">
@@ -15406,7 +15406,7 @@
         <v>0</v>
       </c>
       <c r="Q280">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281" spans="1:18">
@@ -15453,7 +15453,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15547,7 +15547,7 @@
         <v>0</v>
       </c>
       <c r="Q283">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="284" spans="1:18">
@@ -15594,7 +15594,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15644,7 +15644,7 @@
         <v>1</v>
       </c>
       <c r="Q285">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R285">
         <v>15</v>
@@ -15697,7 +15697,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15747,7 +15747,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R287">
         <v>6</v>
@@ -15797,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="Q288">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="289" spans="1:18">
@@ -15847,7 +15847,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R290">
         <v>3</v>
@@ -15941,10 +15941,10 @@
         <v>1</v>
       </c>
       <c r="P291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q291">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="292" spans="1:18">
@@ -15991,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16038,7 +16038,7 @@
         <v>0</v>
       </c>
       <c r="Q293">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="294" spans="1:18">
@@ -16085,7 +16085,7 @@
         <v>0</v>
       </c>
       <c r="Q294">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="295" spans="1:18">
@@ -16132,7 +16132,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16179,7 +16179,7 @@
         <v>0</v>
       </c>
       <c r="Q296">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="297" spans="1:18">
@@ -16226,7 +16226,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16273,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16320,7 +16320,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16367,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16414,7 +16414,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16455,10 +16455,10 @@
         <v>1</v>
       </c>
       <c r="P302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q302">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="303" spans="1:18">
@@ -16508,7 +16508,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="R303">
         <v>19</v>
@@ -16558,7 +16558,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16605,7 +16605,7 @@
         <v>0</v>
       </c>
       <c r="Q305">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="306" spans="1:18">
@@ -16652,7 +16652,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16702,7 +16702,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="R307">
         <v>21</v>
@@ -16752,7 +16752,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16802,7 +16802,7 @@
         <v>1</v>
       </c>
       <c r="Q309">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="R309">
         <v>17</v>
@@ -16855,7 +16855,7 @@
         <v>0</v>
       </c>
       <c r="Q310">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="311" spans="1:18">
@@ -16902,7 +16902,7 @@
         <v>0</v>
       </c>
       <c r="Q311">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="312" spans="1:18">
@@ -16949,7 +16949,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -16996,7 +16996,7 @@
         <v>0</v>
       </c>
       <c r="Q313">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="314" spans="1:18">
@@ -17046,7 +17046,7 @@
         <v>1</v>
       </c>
       <c r="Q314">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="R314">
         <v>16</v>
@@ -17096,7 +17096,7 @@
         <v>0</v>
       </c>
       <c r="Q315">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="316" spans="1:18">
@@ -17146,7 +17146,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="R316">
         <v>18</v>
@@ -17199,7 +17199,7 @@
         <v>0</v>
       </c>
       <c r="Q317">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="318" spans="1:18">
@@ -17249,7 +17249,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R318">
         <v>8</v>
@@ -17302,7 +17302,7 @@
         <v>1</v>
       </c>
       <c r="Q319">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R319">
         <v>16</v>
@@ -17355,7 +17355,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17405,7 +17405,7 @@
         <v>1</v>
       </c>
       <c r="Q321">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R321">
         <v>6</v>
@@ -17452,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17499,7 +17499,7 @@
         <v>0</v>
       </c>
       <c r="Q323">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="324" spans="1:18">
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17596,7 +17596,7 @@
         <v>1</v>
       </c>
       <c r="Q325">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R325">
         <v>16</v>
@@ -17646,7 +17646,7 @@
         <v>0</v>
       </c>
       <c r="Q326">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="327" spans="1:18">
@@ -17696,7 +17696,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R327">
         <v>18</v>
@@ -17749,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="Q328">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R328">
         <v>10</v>
@@ -17799,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="Q329">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="330" spans="1:18">
@@ -17849,7 +17849,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R330">
         <v>5</v>
@@ -17899,7 +17899,7 @@
         <v>0</v>
       </c>
       <c r="Q331">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="332" spans="1:18">
@@ -17949,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -17996,7 +17996,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18049,7 +18049,7 @@
         <v>1</v>
       </c>
       <c r="Q334">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R334">
         <v>31</v>
@@ -18099,7 +18099,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18146,7 +18146,7 @@
         <v>0</v>
       </c>
       <c r="Q336">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="337" spans="1:18">
@@ -18193,7 +18193,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18240,7 +18240,7 @@
         <v>0</v>
       </c>
       <c r="Q338">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="339" spans="1:18">
@@ -18287,7 +18287,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18337,7 +18337,7 @@
         <v>1</v>
       </c>
       <c r="Q340">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R340">
         <v>17</v>
@@ -18387,7 +18387,7 @@
         <v>0</v>
       </c>
       <c r="Q341">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="342" spans="1:18">
@@ -18437,7 +18437,7 @@
         <v>1</v>
       </c>
       <c r="Q342">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R342">
         <v>16</v>
@@ -18490,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="Q343">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="344" spans="1:18">
@@ -18540,7 +18540,7 @@
         <v>1</v>
       </c>
       <c r="Q344">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R344">
         <v>18</v>
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="Q345">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="346" spans="1:18">
@@ -18640,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="Q346">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="347" spans="1:18">
@@ -18687,7 +18687,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18734,7 +18734,7 @@
         <v>0</v>
       </c>
       <c r="Q348">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="349" spans="1:18">
@@ -18781,7 +18781,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -18828,7 +18828,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -18875,7 +18875,7 @@
         <v>0</v>
       </c>
       <c r="Q351">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="352" spans="1:18">
@@ -18922,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -18972,7 +18972,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R353">
         <v>18</v>
@@ -19025,7 +19025,7 @@
         <v>1</v>
       </c>
       <c r="Q354">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R354">
         <v>18</v>
@@ -19075,7 +19075,7 @@
         <v>0</v>
       </c>
       <c r="Q355">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19125,7 +19125,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R356">
         <v>21</v>
@@ -19178,7 +19178,7 @@
         <v>0</v>
       </c>
       <c r="Q357">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="358" spans="1:18">
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="Q358">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R358">
         <v>23</v>
@@ -19278,7 +19278,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19328,7 +19328,7 @@
         <v>1</v>
       </c>
       <c r="Q360">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R360">
         <v>4</v>
@@ -19378,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="Q361">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="362" spans="1:18">
@@ -19425,7 +19425,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19475,7 +19475,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19522,7 +19522,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R364">
         <v>23</v>
@@ -19572,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19619,7 +19619,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19666,7 +19666,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19713,7 +19713,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19760,7 +19760,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -19810,7 +19810,7 @@
         <v>0</v>
       </c>
       <c r="Q370">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="371" spans="1:18">
@@ -19860,7 +19860,7 @@
         <v>1</v>
       </c>
       <c r="Q371">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R371">
         <v>16</v>
@@ -19910,7 +19910,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -19957,7 +19957,7 @@
         <v>0</v>
       </c>
       <c r="Q373">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="374" spans="1:18">
@@ -20004,7 +20004,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20054,7 +20054,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R375">
         <v>15</v>
@@ -20104,7 +20104,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20151,7 +20151,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20201,7 +20201,7 @@
         <v>1</v>
       </c>
       <c r="Q378">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R378">
         <v>25</v>
@@ -20251,7 +20251,7 @@
         <v>0</v>
       </c>
       <c r="Q379">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="380" spans="1:18">
@@ -20301,7 +20301,7 @@
         <v>1</v>
       </c>
       <c r="Q380">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R380">
         <v>9</v>
@@ -20351,7 +20351,7 @@
         <v>0</v>
       </c>
       <c r="Q381">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="382" spans="1:18">
@@ -20398,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20448,7 +20448,7 @@
         <v>0</v>
       </c>
       <c r="Q383">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="384" spans="1:18">
@@ -20498,7 +20498,7 @@
         <v>1</v>
       </c>
       <c r="Q384">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R384">
         <v>28</v>
@@ -20548,7 +20548,7 @@
         <v>0</v>
       </c>
       <c r="Q385">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="386" spans="1:18">
@@ -20598,7 +20598,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20645,7 +20645,7 @@
         <v>0</v>
       </c>
       <c r="Q387">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="388" spans="1:18">
@@ -20692,7 +20692,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20739,7 +20739,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -20786,7 +20786,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -20833,7 +20833,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -20880,7 +20880,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -20927,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -20977,7 +20977,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R394">
         <v>17</v>
@@ -21030,7 +21030,7 @@
         <v>1</v>
       </c>
       <c r="Q395">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R395">
         <v>16</v>
@@ -21083,7 +21083,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21133,7 +21133,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R397">
         <v>8</v>
@@ -21186,7 +21186,7 @@
         <v>1</v>
       </c>
       <c r="Q398">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R398">
         <v>19</v>
@@ -21239,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="Q399">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="400" spans="1:18">
@@ -21286,7 +21286,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21333,7 +21333,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21380,7 +21380,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21427,7 +21427,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21474,7 +21474,7 @@
         <v>0</v>
       </c>
       <c r="Q404">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="405" spans="1:18">
@@ -21524,7 +21524,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R405">
         <v>0</v>
@@ -21574,7 +21574,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21621,7 +21621,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21671,7 +21671,7 @@
         <v>1</v>
       </c>
       <c r="Q408">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R408">
         <v>10</v>
@@ -21724,7 +21724,7 @@
         <v>1</v>
       </c>
       <c r="Q409">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R409">
         <v>14</v>
@@ -21777,7 +21777,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -21824,7 +21824,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -21871,7 +21871,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -21918,7 +21918,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -21968,7 +21968,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R414">
         <v>13</v>
@@ -22018,7 +22018,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22065,7 +22065,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22112,7 +22112,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22162,7 +22162,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22212,7 +22212,7 @@
         <v>1</v>
       </c>
       <c r="Q419">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R419">
         <v>16</v>
@@ -22265,7 +22265,7 @@
         <v>0</v>
       </c>
       <c r="Q420">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="421" spans="1:18">
@@ -22312,7 +22312,7 @@
         <v>0</v>
       </c>
       <c r="Q421">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="422" spans="1:18">
@@ -22359,7 +22359,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22406,7 +22406,7 @@
         <v>0</v>
       </c>
       <c r="Q423">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="424" spans="1:18">
@@ -22456,7 +22456,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22506,7 +22506,7 @@
         <v>1</v>
       </c>
       <c r="Q425">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R425">
         <v>25</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22606,7 +22606,7 @@
         <v>1</v>
       </c>
       <c r="Q427">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R427">
         <v>4</v>
@@ -22656,7 +22656,7 @@
         <v>0</v>
       </c>
       <c r="Q428">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="429" spans="1:18">
@@ -22706,7 +22706,7 @@
         <v>1</v>
       </c>
       <c r="Q429">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R429">
         <v>5</v>
@@ -22750,10 +22750,10 @@
         <v>1</v>
       </c>
       <c r="P430" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q430">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -22794,10 +22794,10 @@
         <v>1</v>
       </c>
       <c r="P431" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q431">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -22847,7 +22847,7 @@
         <v>1</v>
       </c>
       <c r="Q432">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="R432">
         <v>15</v>
@@ -22897,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -22947,7 +22947,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="R434">
         <v>5</v>
@@ -22997,7 +22997,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23050,7 +23050,7 @@
         <v>1</v>
       </c>
       <c r="Q436">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="R436">
         <v>17</v>
@@ -23100,7 +23100,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23150,7 +23150,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="R438">
         <v>19</v>
@@ -23203,7 +23203,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23250,7 +23250,7 @@
         <v>0</v>
       </c>
       <c r="Q440">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="441" spans="1:18">
@@ -23297,7 +23297,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23344,7 +23344,7 @@
         <v>0</v>
       </c>
       <c r="Q442">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="443" spans="1:18">
@@ -23391,7 +23391,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23438,7 +23438,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23485,7 +23485,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23532,7 +23532,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="Q447">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="448" spans="1:18">
@@ -23626,7 +23626,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23676,7 +23676,7 @@
         <v>1</v>
       </c>
       <c r="Q449">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R449">
         <v>39</v>
@@ -23726,7 +23726,7 @@
         <v>0</v>
       </c>
       <c r="Q450">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="451" spans="1:18">
@@ -23773,7 +23773,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -23820,7 +23820,7 @@
         <v>0</v>
       </c>
       <c r="Q452">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="453" spans="1:18">
@@ -23870,7 +23870,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R453">
         <v>18</v>
@@ -23920,7 +23920,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -23967,7 +23967,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24061,7 +24061,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24111,7 +24111,7 @@
         <v>1</v>
       </c>
       <c r="Q458">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R458">
         <v>0</v>
@@ -24164,7 +24164,7 @@
         <v>0</v>
       </c>
       <c r="Q459">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="460" spans="1:18">
@@ -24214,7 +24214,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R460">
         <v>14</v>
@@ -24267,7 +24267,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24317,7 +24317,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R462">
         <v>12</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24420,7 +24420,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R464">
         <v>17</v>
@@ -24473,7 +24473,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R465">
         <v>23</v>
@@ -24523,7 +24523,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24573,7 +24573,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R467">
         <v>3</v>
@@ -24626,7 +24626,7 @@
         <v>1</v>
       </c>
       <c r="Q468">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R468">
         <v>15</v>
@@ -24679,7 +24679,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24729,7 +24729,7 @@
         <v>1</v>
       </c>
       <c r="Q470">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R470">
         <v>10</v>
@@ -24782,7 +24782,7 @@
         <v>0</v>
       </c>
       <c r="Q471">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="472" spans="1:18">
@@ -24832,7 +24832,7 @@
         <v>1</v>
       </c>
       <c r="Q472">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R472">
         <v>15</v>
@@ -24885,7 +24885,7 @@
         <v>1</v>
       </c>
       <c r="Q473">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R473">
         <v>13</v>
@@ -24938,7 +24938,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25035,7 +25035,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25082,7 +25082,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25176,7 +25176,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25223,7 +25223,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25270,7 +25270,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25364,7 +25364,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25461,7 +25461,7 @@
         <v>1</v>
       </c>
       <c r="Q485">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R485">
         <v>26</v>
@@ -25514,7 +25514,7 @@
         <v>0</v>
       </c>
       <c r="Q486">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="487" spans="1:18">
@@ -25564,7 +25564,7 @@
         <v>1</v>
       </c>
       <c r="Q487">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R487">
         <v>6</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25664,7 +25664,7 @@
         <v>1</v>
       </c>
       <c r="Q489">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R489">
         <v>11</v>
@@ -25714,7 +25714,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25764,7 +25764,7 @@
         <v>1</v>
       </c>
       <c r="Q491">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R491">
         <v>9</v>
@@ -25817,7 +25817,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -25864,7 +25864,7 @@
         <v>0</v>
       </c>
       <c r="Q493">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="494" spans="1:18">
@@ -25914,7 +25914,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -25964,7 +25964,7 @@
         <v>1</v>
       </c>
       <c r="Q495">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R495">
         <v>35</v>
@@ -26017,7 +26017,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26064,7 +26064,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26111,7 +26111,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26158,7 +26158,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26205,7 +26205,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26255,7 +26255,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R501">
         <v>13</v>
@@ -26308,7 +26308,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R502">
         <v>18</v>
@@ -26361,7 +26361,7 @@
         <v>1</v>
       </c>
       <c r="Q503">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R503">
         <v>15</v>
@@ -26411,7 +26411,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26458,7 +26458,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26505,7 +26505,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26552,7 +26552,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26599,7 +26599,7 @@
         <v>0</v>
       </c>
       <c r="Q508">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="509" spans="1:18">
@@ -26646,7 +26646,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26696,7 +26696,7 @@
         <v>1</v>
       </c>
       <c r="Q510">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R510">
         <v>0</v>
@@ -26749,7 +26749,7 @@
         <v>1</v>
       </c>
       <c r="Q511">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R511">
         <v>22</v>
@@ -26799,7 +26799,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -26849,7 +26849,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R513">
         <v>8</v>
@@ -26896,7 +26896,7 @@
         <v>0</v>
       </c>
       <c r="Q514">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="515" spans="1:18">
@@ -26946,7 +26946,7 @@
         <v>1</v>
       </c>
       <c r="Q515">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R515">
         <v>29</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="517" spans="1:18">
@@ -27049,7 +27049,7 @@
         <v>1</v>
       </c>
       <c r="Q517">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R517">
         <v>22</v>
@@ -27102,7 +27102,7 @@
         <v>0</v>
       </c>
       <c r="Q518">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="519" spans="1:18">
@@ -27149,7 +27149,7 @@
         <v>0</v>
       </c>
       <c r="Q519">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="520" spans="1:18">
@@ -27196,7 +27196,7 @@
         <v>0</v>
       </c>
       <c r="Q520">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="521" spans="1:18">
@@ -27243,7 +27243,7 @@
         <v>0</v>
       </c>
       <c r="Q521">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="522" spans="1:18">
@@ -27290,7 +27290,7 @@
         <v>0</v>
       </c>
       <c r="Q522">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="523" spans="1:18">
@@ -27337,7 +27337,7 @@
         <v>0</v>
       </c>
       <c r="Q523">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="524" spans="1:18">
@@ -27384,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="Q524">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="525" spans="1:18">
@@ -27431,7 +27431,7 @@
         <v>0</v>
       </c>
       <c r="Q525">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="526" spans="1:18">
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="Q526">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="527" spans="1:18">
@@ -27522,7 +27522,7 @@
         <v>0</v>
       </c>
       <c r="Q527">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="528" spans="1:18">
@@ -27569,7 +27569,7 @@
         <v>0</v>
       </c>
       <c r="Q528">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="529" spans="1:18">
@@ -27619,7 +27619,7 @@
         <v>1</v>
       </c>
       <c r="Q529">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R529">
         <v>27</v>
@@ -27672,7 +27672,7 @@
         <v>1</v>
       </c>
       <c r="Q530">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R530">
         <v>19</v>
@@ -27725,7 +27725,7 @@
         <v>0</v>
       </c>
       <c r="Q531">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="532" spans="1:18">
@@ -27775,7 +27775,7 @@
         <v>1</v>
       </c>
       <c r="Q532">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R532">
         <v>14</v>
@@ -27828,7 +27828,7 @@
         <v>1</v>
       </c>
       <c r="Q533">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R533">
         <v>24</v>
@@ -27878,7 +27878,7 @@
         <v>0</v>
       </c>
       <c r="Q534">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="535" spans="1:18">
@@ -27928,7 +27928,7 @@
         <v>1</v>
       </c>
       <c r="Q535">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R535">
         <v>20</v>
@@ -27981,7 +27981,7 @@
         <v>0</v>
       </c>
       <c r="Q536">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="537" spans="1:18">
@@ -28031,7 +28031,7 @@
         <v>1</v>
       </c>
       <c r="Q537">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R537">
         <v>13</v>
@@ -28081,7 +28081,7 @@
         <v>0</v>
       </c>
       <c r="Q538">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="539" spans="1:18">
@@ -28131,7 +28131,7 @@
         <v>1</v>
       </c>
       <c r="Q539">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R539">
         <v>21</v>
@@ -28181,7 +28181,7 @@
         <v>0</v>
       </c>
       <c r="Q540">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="541" spans="1:18">
@@ -28225,7 +28225,7 @@
         <v>0</v>
       </c>
       <c r="Q541">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="542" spans="1:18">
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="Q542">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="543" spans="1:18">
@@ -28319,7 +28319,7 @@
         <v>0</v>
       </c>
       <c r="Q543">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="544" spans="1:18">
@@ -28366,7 +28366,7 @@
         <v>0</v>
       </c>
       <c r="Q544">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="545" spans="1:18">
@@ -28413,7 +28413,7 @@
         <v>0</v>
       </c>
       <c r="Q545">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="546" spans="1:18">
@@ -28460,7 +28460,7 @@
         <v>0</v>
       </c>
       <c r="Q546">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="547" spans="1:18">
@@ -28507,7 +28507,7 @@
         <v>0</v>
       </c>
       <c r="Q547">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="548" spans="1:18">
@@ -28554,7 +28554,7 @@
         <v>0</v>
       </c>
       <c r="Q548">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="549" spans="1:18">
@@ -28601,7 +28601,7 @@
         <v>0</v>
       </c>
       <c r="Q549">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="550" spans="1:18">
@@ -28648,7 +28648,7 @@
         <v>0</v>
       </c>
       <c r="Q550">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="551" spans="1:18">
@@ -28695,7 +28695,7 @@
         <v>0</v>
       </c>
       <c r="Q551">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="552" spans="1:18">
@@ -28742,7 +28742,7 @@
         <v>0</v>
       </c>
       <c r="Q552">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="553" spans="1:18">
@@ -28786,7 +28786,7 @@
         <v>0</v>
       </c>
       <c r="Q553">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="554" spans="1:18">
@@ -28833,7 +28833,7 @@
         <v>0</v>
       </c>
       <c r="Q554">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="555" spans="1:18">
@@ -28880,7 +28880,7 @@
         <v>0</v>
       </c>
       <c r="Q555">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="556" spans="1:18">
@@ -28930,7 +28930,7 @@
         <v>1</v>
       </c>
       <c r="Q556">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R556">
         <v>13</v>
@@ -28974,10 +28974,10 @@
         <v>1</v>
       </c>
       <c r="P557" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q557">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="558" spans="1:18">
@@ -29018,7 +29018,7 @@
         <v>0</v>
       </c>
       <c r="Q558">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
